--- a/Src/Documentos/Tablas generadas.xlsx
+++ b/Src/Documentos/Tablas generadas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>Clientes</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Vendedores</t>
+  </si>
+  <si>
+    <t>ClientesCuentaCorrientes</t>
   </si>
 </sst>
 </file>
@@ -412,9 +415,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -529,11 +534,17 @@
         <v>16</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A1:A12">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
